--- a/Documentation/Project1TaskSpreadsheet.xlsx
+++ b/Documentation/Project1TaskSpreadsheet.xlsx
@@ -19,7 +19,24 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="108" uniqueCount="61">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="110" uniqueCount="63">
+  <si>
+    <t>Modify control loop to allow turning while moving</t>
+  </si>
+  <si>
+    <t>Test complete movement</t>
+  </si>
+  <si>
+    <t>Determine high level emergency stop implementation</t>
+  </si>
+  <si>
+    <t>Jerrell</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Root Android Devices</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
   <si>
     <t>Write code to send/receive stop command</t>
   </si>
@@ -197,28 +214,14 @@
   </si>
   <si>
     <t>Test dynamic speeds</t>
-  </si>
-  <si>
-    <t>Modify control loop to allow turning while moving</t>
-  </si>
-  <si>
-    <t>Test complete movement</t>
-  </si>
-  <si>
-    <t>Determine high level emergency stop implementation</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="6">
-    <numFmt numFmtId="42" formatCode="_(&quot;$&quot;* #,##0_);_(&quot;$&quot;* \(#,##0\);_(&quot;$&quot;* &quot;-&quot;_);_(@_)"/>
-    <numFmt numFmtId="41" formatCode="_(* #,##0_);_(* \(#,##0\);_(* &quot;-&quot;_);_(@_)"/>
-    <numFmt numFmtId="44" formatCode="_(&quot;$&quot;* #,##0.00_);_(&quot;$&quot;* \(#,##0.00\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)"/>
-    <numFmt numFmtId="43" formatCode="_(* #,##0.00_);_(* \(#,##0.00\);_(* &quot;-&quot;??_);_(@_)"/>
-    <numFmt numFmtId="166" formatCode="mm/dd/yy"/>
-    <numFmt numFmtId="167" formatCode="0.00%"/>
+  <numFmts count="1">
+    <numFmt numFmtId="164" formatCode="mm/dd/yy"/>
   </numFmts>
   <fonts count="3">
     <font>
@@ -335,63 +338,35 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
-    <xf numFmtId="166" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="166" fontId="2" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="164" fontId="2" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
-    <xf numFmtId="166" fontId="2" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="2" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
-    <xf numFmtId="166" fontId="2" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="2" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
-    <xf numFmtId="167" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="167" fontId="2" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="10" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="10" fontId="2" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
-    <xf numFmtId="167" fontId="2" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="10" fontId="2" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
-    <xf numFmtId="167" fontId="2" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="10" fontId="2" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="6">
+  <dxfs count="2">
     <dxf>
       <fill>
         <patternFill>
           <bgColor indexed="11"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor indexed="10"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor indexed="10"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor indexed="10"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor indexed="10"/>
         </patternFill>
       </fill>
     </dxf>
@@ -727,10 +702,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:mv="urn:schemas-microsoft-com:mac:vml" mc:Ignorable="mv" mc:PreserveAttributes="mv:*">
-  <dimension ref="A1:H51"/>
+  <dimension ref="A1:H52"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="125" workbookViewId="0">
-      <selection activeCell="E7" sqref="E7"/>
+      <selection activeCell="E16" sqref="E16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="13"/>
@@ -743,37 +718,37 @@
   <sheetData>
     <row r="1" spans="1:8" ht="14" thickBot="1">
       <c r="A1" s="1" t="s">
-        <v>6</v>
+        <v>11</v>
       </c>
       <c r="B1" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="C1" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="D1" s="12" t="s">
         <v>7</v>
       </c>
-      <c r="C1" s="2" t="s">
+      <c r="E1" s="8" t="s">
         <v>8</v>
       </c>
-      <c r="D1" s="12" t="s">
-        <v>2</v>
-      </c>
-      <c r="E1" s="8" t="s">
-        <v>3</v>
-      </c>
       <c r="F1" s="2" t="s">
-        <v>4</v>
+        <v>9</v>
       </c>
       <c r="G1" t="s">
-        <v>5</v>
+        <v>10</v>
       </c>
       <c r="H1" s="7">
         <f ca="1">TODAY()</f>
-        <v>40060</v>
+        <v>40061</v>
       </c>
     </row>
     <row r="2" spans="1:8" ht="14" thickBot="1">
       <c r="A2" s="3" t="s">
-        <v>9</v>
+        <v>14</v>
       </c>
       <c r="B2" s="4" t="s">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="C2" s="5">
         <v>40059</v>
@@ -792,10 +767,10 @@
     </row>
     <row r="3" spans="1:8" ht="14" thickBot="1">
       <c r="A3" s="3" t="s">
-        <v>9</v>
+        <v>14</v>
       </c>
       <c r="B3" s="4" t="s">
-        <v>11</v>
+        <v>16</v>
       </c>
       <c r="C3" s="5">
         <v>40059</v>
@@ -808,36 +783,38 @@
       </c>
       <c r="F3" s="6"/>
       <c r="G3">
-        <f t="shared" ref="G3:G51" ca="1" si="0">IF(AND(C3&lt;$H$1,D3&lt;1),1,0)</f>
+        <f t="shared" ref="G3:G52" ca="1" si="0">IF(AND(C3&lt;$H$1,D3&lt;1),1,0)</f>
         <v>0</v>
       </c>
     </row>
     <row r="4" spans="1:8" ht="14" thickBot="1">
       <c r="A4" s="3" t="s">
-        <v>12</v>
+        <v>17</v>
       </c>
       <c r="B4" s="4" t="s">
-        <v>13</v>
+        <v>18</v>
       </c>
       <c r="C4" s="5">
         <v>40059</v>
       </c>
       <c r="D4" s="13">
-        <v>0</v>
-      </c>
-      <c r="E4" s="9"/>
+        <v>1</v>
+      </c>
+      <c r="E4" s="9">
+        <v>40061</v>
+      </c>
       <c r="F4" s="6"/>
       <c r="G4">
         <f t="shared" ca="1" si="0"/>
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="5" spans="1:8" ht="14" thickBot="1">
       <c r="A5" s="3" t="s">
-        <v>14</v>
+        <v>19</v>
       </c>
       <c r="B5" s="4" t="s">
-        <v>15</v>
+        <v>20</v>
       </c>
       <c r="C5" s="5">
         <v>40059</v>
@@ -854,10 +831,10 @@
     </row>
     <row r="6" spans="1:8" ht="14" thickBot="1">
       <c r="A6" s="3" t="s">
-        <v>16</v>
+        <v>21</v>
       </c>
       <c r="B6" s="4" t="s">
-        <v>17</v>
+        <v>22</v>
       </c>
       <c r="C6" s="5">
         <v>40059</v>
@@ -876,10 +853,10 @@
     </row>
     <row r="7" spans="1:8" ht="14" thickBot="1">
       <c r="A7" s="3" t="s">
-        <v>9</v>
+        <v>14</v>
       </c>
       <c r="B7" s="4" t="s">
-        <v>18</v>
+        <v>23</v>
       </c>
       <c r="C7" s="5">
         <v>40060</v>
@@ -898,10 +875,10 @@
     </row>
     <row r="8" spans="1:8" ht="14" thickBot="1">
       <c r="A8" s="3" t="s">
-        <v>16</v>
+        <v>21</v>
       </c>
       <c r="B8" s="4" t="s">
-        <v>19</v>
+        <v>24</v>
       </c>
       <c r="C8" s="5">
         <v>40060</v>
@@ -920,18 +897,20 @@
     </row>
     <row r="9" spans="1:8" ht="14" thickBot="1">
       <c r="A9" s="3" t="s">
-        <v>12</v>
+        <v>17</v>
       </c>
       <c r="B9" s="4" t="s">
-        <v>20</v>
+        <v>25</v>
       </c>
       <c r="C9" s="5">
         <v>40061</v>
       </c>
       <c r="D9" s="13">
-        <v>0</v>
-      </c>
-      <c r="E9" s="9"/>
+        <v>1</v>
+      </c>
+      <c r="E9" s="9">
+        <v>40060</v>
+      </c>
       <c r="F9" s="6"/>
       <c r="G9">
         <f t="shared" ca="1" si="0"/>
@@ -940,16 +919,16 @@
     </row>
     <row r="10" spans="1:8" ht="14" thickBot="1">
       <c r="A10" s="3" t="s">
-        <v>14</v>
+        <v>19</v>
       </c>
       <c r="B10" s="4" t="s">
-        <v>21</v>
+        <v>26</v>
       </c>
       <c r="C10" s="5">
         <v>40061</v>
       </c>
       <c r="D10" s="13">
-        <v>0</v>
+        <v>0.75</v>
       </c>
       <c r="E10" s="9"/>
       <c r="F10" s="6"/>
@@ -960,10 +939,10 @@
     </row>
     <row r="11" spans="1:8" ht="14" thickBot="1">
       <c r="A11" s="3" t="s">
-        <v>9</v>
+        <v>14</v>
       </c>
       <c r="B11" s="4" t="s">
-        <v>22</v>
+        <v>27</v>
       </c>
       <c r="C11" s="5">
         <v>40061</v>
@@ -980,10 +959,10 @@
     </row>
     <row r="12" spans="1:8" ht="14" thickBot="1">
       <c r="A12" s="3" t="s">
-        <v>16</v>
+        <v>21</v>
       </c>
       <c r="B12" s="4" t="s">
-        <v>23</v>
+        <v>28</v>
       </c>
       <c r="C12" s="5">
         <v>40061</v>
@@ -1000,10 +979,10 @@
     </row>
     <row r="13" spans="1:8" ht="14" thickBot="1">
       <c r="A13" s="3" t="s">
-        <v>12</v>
+        <v>17</v>
       </c>
       <c r="B13" s="4" t="s">
-        <v>24</v>
+        <v>29</v>
       </c>
       <c r="C13" s="5">
         <v>40061</v>
@@ -1020,18 +999,20 @@
     </row>
     <row r="14" spans="1:8" ht="14" thickBot="1">
       <c r="A14" s="3" t="s">
-        <v>9</v>
+        <v>14</v>
       </c>
       <c r="B14" s="4" t="s">
-        <v>25</v>
+        <v>30</v>
       </c>
       <c r="C14" s="5">
         <v>40061</v>
       </c>
       <c r="D14" s="13">
-        <v>0</v>
-      </c>
-      <c r="E14" s="9"/>
+        <v>1</v>
+      </c>
+      <c r="E14" s="9">
+        <v>40061</v>
+      </c>
       <c r="F14" s="6"/>
       <c r="G14">
         <f t="shared" ca="1" si="0"/>
@@ -1040,18 +1021,20 @@
     </row>
     <row r="15" spans="1:8" ht="14" thickBot="1">
       <c r="A15" s="3" t="s">
-        <v>14</v>
+        <v>19</v>
       </c>
       <c r="B15" s="4" t="s">
-        <v>26</v>
+        <v>31</v>
       </c>
       <c r="C15" s="5">
         <v>40061</v>
       </c>
       <c r="D15" s="13">
-        <v>0</v>
-      </c>
-      <c r="E15" s="9"/>
+        <v>1</v>
+      </c>
+      <c r="E15" s="9">
+        <v>40061</v>
+      </c>
       <c r="F15" s="6"/>
       <c r="G15">
         <f t="shared" ca="1" si="0"/>
@@ -1060,13 +1043,13 @@
     </row>
     <row r="16" spans="1:8" ht="14" thickBot="1">
       <c r="A16" s="3" t="s">
-        <v>16</v>
+        <v>3</v>
       </c>
       <c r="B16" s="4" t="s">
-        <v>27</v>
-      </c>
-      <c r="C16" s="5" t="s">
-        <v>28</v>
+        <v>4</v>
+      </c>
+      <c r="C16" s="5">
+        <v>40063</v>
       </c>
       <c r="D16" s="13">
         <v>0</v>
@@ -1080,13 +1063,13 @@
     </row>
     <row r="17" spans="1:7" ht="14" thickBot="1">
       <c r="A17" s="3" t="s">
-        <v>16</v>
+        <v>21</v>
       </c>
       <c r="B17" s="4" t="s">
-        <v>29</v>
-      </c>
-      <c r="C17" s="5">
-        <v>40063</v>
+        <v>32</v>
+      </c>
+      <c r="C17" s="5" t="s">
+        <v>33</v>
       </c>
       <c r="D17" s="13">
         <v>0</v>
@@ -1100,20 +1083,18 @@
     </row>
     <row r="18" spans="1:7" ht="14" thickBot="1">
       <c r="A18" s="3" t="s">
-        <v>16</v>
+        <v>21</v>
       </c>
       <c r="B18" s="4" t="s">
-        <v>30</v>
+        <v>34</v>
       </c>
       <c r="C18" s="5">
-        <v>40061</v>
+        <v>40063</v>
       </c>
       <c r="D18" s="13">
-        <v>1</v>
-      </c>
-      <c r="E18" s="9">
-        <v>40058</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="E18" s="9"/>
       <c r="F18" s="6"/>
       <c r="G18">
         <f t="shared" ca="1" si="0"/>
@@ -1122,18 +1103,20 @@
     </row>
     <row r="19" spans="1:7" ht="14" thickBot="1">
       <c r="A19" s="3" t="s">
-        <v>16</v>
+        <v>21</v>
       </c>
       <c r="B19" s="4" t="s">
-        <v>31</v>
+        <v>35</v>
       </c>
       <c r="C19" s="5">
-        <v>40063</v>
+        <v>40061</v>
       </c>
       <c r="D19" s="13">
-        <v>0</v>
-      </c>
-      <c r="E19" s="9"/>
+        <v>1</v>
+      </c>
+      <c r="E19" s="9">
+        <v>40058</v>
+      </c>
       <c r="F19" s="6"/>
       <c r="G19">
         <f t="shared" ca="1" si="0"/>
@@ -1142,10 +1125,10 @@
     </row>
     <row r="20" spans="1:7" ht="14" thickBot="1">
       <c r="A20" s="3" t="s">
-        <v>16</v>
+        <v>21</v>
       </c>
       <c r="B20" s="4" t="s">
-        <v>32</v>
+        <v>36</v>
       </c>
       <c r="C20" s="5">
         <v>40063</v>
@@ -1162,10 +1145,10 @@
     </row>
     <row r="21" spans="1:7" ht="14" thickBot="1">
       <c r="A21" s="3" t="s">
-        <v>16</v>
+        <v>21</v>
       </c>
       <c r="B21" s="4" t="s">
-        <v>33</v>
+        <v>37</v>
       </c>
       <c r="C21" s="5">
         <v>40063</v>
@@ -1182,10 +1165,10 @@
     </row>
     <row r="22" spans="1:7" ht="14" thickBot="1">
       <c r="A22" s="3" t="s">
-        <v>16</v>
+        <v>21</v>
       </c>
       <c r="B22" s="4" t="s">
-        <v>34</v>
+        <v>38</v>
       </c>
       <c r="C22" s="5">
         <v>40063</v>
@@ -1202,10 +1185,10 @@
     </row>
     <row r="23" spans="1:7" ht="14" thickBot="1">
       <c r="A23" s="3" t="s">
-        <v>16</v>
+        <v>21</v>
       </c>
       <c r="B23" s="4" t="s">
-        <v>35</v>
+        <v>39</v>
       </c>
       <c r="C23" s="5">
         <v>40063</v>
@@ -1222,10 +1205,10 @@
     </row>
     <row r="24" spans="1:7" ht="14" thickBot="1">
       <c r="A24" s="3" t="s">
-        <v>16</v>
+        <v>21</v>
       </c>
       <c r="B24" s="4" t="s">
-        <v>36</v>
+        <v>40</v>
       </c>
       <c r="C24" s="5">
         <v>40063</v>
@@ -1242,13 +1225,13 @@
     </row>
     <row r="25" spans="1:7" ht="14" thickBot="1">
       <c r="A25" s="3" t="s">
-        <v>16</v>
+        <v>21</v>
       </c>
       <c r="B25" s="4" t="s">
-        <v>37</v>
+        <v>41</v>
       </c>
       <c r="C25" s="5">
-        <v>40066</v>
+        <v>40063</v>
       </c>
       <c r="D25" s="13">
         <v>0</v>
@@ -1262,10 +1245,10 @@
     </row>
     <row r="26" spans="1:7" ht="14" thickBot="1">
       <c r="A26" s="3" t="s">
-        <v>16</v>
+        <v>21</v>
       </c>
       <c r="B26" s="4" t="s">
-        <v>38</v>
+        <v>42</v>
       </c>
       <c r="C26" s="5">
         <v>40066</v>
@@ -1282,13 +1265,13 @@
     </row>
     <row r="27" spans="1:7" ht="14" thickBot="1">
       <c r="A27" s="3" t="s">
-        <v>16</v>
+        <v>21</v>
       </c>
       <c r="B27" s="4" t="s">
-        <v>39</v>
+        <v>43</v>
       </c>
       <c r="C27" s="5">
-        <v>40069</v>
+        <v>40066</v>
       </c>
       <c r="D27" s="13">
         <v>0</v>
@@ -1302,13 +1285,13 @@
     </row>
     <row r="28" spans="1:7" ht="14" thickBot="1">
       <c r="A28" s="3" t="s">
-        <v>16</v>
+        <v>21</v>
       </c>
       <c r="B28" s="4" t="s">
-        <v>40</v>
+        <v>44</v>
       </c>
       <c r="C28" s="5">
-        <v>40070</v>
+        <v>40069</v>
       </c>
       <c r="D28" s="13">
         <v>0</v>
@@ -1322,13 +1305,13 @@
     </row>
     <row r="29" spans="1:7" ht="14" thickBot="1">
       <c r="A29" s="3" t="s">
-        <v>14</v>
+        <v>21</v>
       </c>
       <c r="B29" s="4" t="s">
-        <v>41</v>
+        <v>45</v>
       </c>
       <c r="C29" s="5">
-        <v>40061</v>
+        <v>40070</v>
       </c>
       <c r="D29" s="13">
         <v>0</v>
@@ -1342,13 +1325,13 @@
     </row>
     <row r="30" spans="1:7" ht="14" thickBot="1">
       <c r="A30" s="3" t="s">
-        <v>14</v>
+        <v>19</v>
       </c>
       <c r="B30" s="4" t="s">
-        <v>42</v>
+        <v>46</v>
       </c>
       <c r="C30" s="5">
-        <v>40066</v>
+        <v>40061</v>
       </c>
       <c r="D30" s="13">
         <v>0</v>
@@ -1362,13 +1345,13 @@
     </row>
     <row r="31" spans="1:7" ht="14" thickBot="1">
       <c r="A31" s="3" t="s">
-        <v>14</v>
+        <v>19</v>
       </c>
       <c r="B31" s="4" t="s">
-        <v>43</v>
+        <v>47</v>
       </c>
       <c r="C31" s="5">
-        <v>40069</v>
+        <v>40066</v>
       </c>
       <c r="D31" s="13">
         <v>0</v>
@@ -1382,13 +1365,13 @@
     </row>
     <row r="32" spans="1:7" ht="14" thickBot="1">
       <c r="A32" s="3" t="s">
-        <v>14</v>
+        <v>19</v>
       </c>
       <c r="B32" s="4" t="s">
-        <v>44</v>
+        <v>48</v>
       </c>
       <c r="C32" s="5">
-        <v>40070</v>
+        <v>40069</v>
       </c>
       <c r="D32" s="13">
         <v>0</v>
@@ -1402,13 +1385,13 @@
     </row>
     <row r="33" spans="1:7" ht="14" thickBot="1">
       <c r="A33" s="3" t="s">
-        <v>9</v>
+        <v>19</v>
       </c>
       <c r="B33" s="4" t="s">
-        <v>45</v>
+        <v>49</v>
       </c>
       <c r="C33" s="5">
-        <v>40061</v>
+        <v>40070</v>
       </c>
       <c r="D33" s="13">
         <v>0</v>
@@ -1422,13 +1405,13 @@
     </row>
     <row r="34" spans="1:7" ht="14" thickBot="1">
       <c r="A34" s="3" t="s">
-        <v>9</v>
+        <v>14</v>
       </c>
       <c r="B34" s="4" t="s">
-        <v>46</v>
+        <v>50</v>
       </c>
       <c r="C34" s="5">
-        <v>40066</v>
+        <v>40061</v>
       </c>
       <c r="D34" s="13">
         <v>0</v>
@@ -1442,13 +1425,13 @@
     </row>
     <row r="35" spans="1:7" ht="14" thickBot="1">
       <c r="A35" s="3" t="s">
-        <v>9</v>
+        <v>14</v>
       </c>
       <c r="B35" s="4" t="s">
-        <v>43</v>
+        <v>51</v>
       </c>
       <c r="C35" s="5">
-        <v>40069</v>
+        <v>40066</v>
       </c>
       <c r="D35" s="13">
         <v>0</v>
@@ -1462,13 +1445,13 @@
     </row>
     <row r="36" spans="1:7" ht="14" thickBot="1">
       <c r="A36" s="3" t="s">
-        <v>9</v>
+        <v>14</v>
       </c>
       <c r="B36" s="4" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="C36" s="5">
-        <v>40070</v>
+        <v>40069</v>
       </c>
       <c r="D36" s="13">
         <v>0</v>
@@ -1485,10 +1468,10 @@
         <v>14</v>
       </c>
       <c r="B37" s="4" t="s">
-        <v>48</v>
+        <v>52</v>
       </c>
       <c r="C37" s="5">
-        <v>40073</v>
+        <v>40070</v>
       </c>
       <c r="D37" s="13">
         <v>0</v>
@@ -1502,13 +1485,13 @@
     </row>
     <row r="38" spans="1:7" ht="14" thickBot="1">
       <c r="A38" s="3" t="s">
-        <v>14</v>
+        <v>19</v>
       </c>
       <c r="B38" s="4" t="s">
-        <v>49</v>
+        <v>53</v>
       </c>
       <c r="C38" s="5">
-        <v>40074</v>
+        <v>40073</v>
       </c>
       <c r="D38" s="13">
         <v>0</v>
@@ -1522,13 +1505,13 @@
     </row>
     <row r="39" spans="1:7" ht="14" thickBot="1">
       <c r="A39" s="3" t="s">
-        <v>9</v>
+        <v>19</v>
       </c>
       <c r="B39" s="4" t="s">
-        <v>50</v>
+        <v>54</v>
       </c>
       <c r="C39" s="5">
-        <v>40076</v>
+        <v>40074</v>
       </c>
       <c r="D39" s="13">
         <v>0</v>
@@ -1542,10 +1525,10 @@
     </row>
     <row r="40" spans="1:7" ht="14" thickBot="1">
       <c r="A40" s="3" t="s">
-        <v>9</v>
+        <v>14</v>
       </c>
       <c r="B40" s="4" t="s">
-        <v>51</v>
+        <v>55</v>
       </c>
       <c r="C40" s="5">
         <v>40076</v>
@@ -1562,13 +1545,13 @@
     </row>
     <row r="41" spans="1:7" ht="14" thickBot="1">
       <c r="A41" s="3" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="B41" s="4" t="s">
-        <v>52</v>
+        <v>56</v>
       </c>
       <c r="C41" s="5">
-        <v>40063</v>
+        <v>40076</v>
       </c>
       <c r="D41" s="13">
         <v>0</v>
@@ -1582,13 +1565,13 @@
     </row>
     <row r="42" spans="1:7" ht="14" thickBot="1">
       <c r="A42" s="3" t="s">
-        <v>12</v>
+        <v>17</v>
       </c>
       <c r="B42" s="4" t="s">
-        <v>53</v>
+        <v>57</v>
       </c>
       <c r="C42" s="5">
-        <v>40069</v>
+        <v>40063</v>
       </c>
       <c r="D42" s="13">
         <v>0</v>
@@ -1602,10 +1585,10 @@
     </row>
     <row r="43" spans="1:7" ht="14" thickBot="1">
       <c r="A43" s="3" t="s">
-        <v>12</v>
+        <v>17</v>
       </c>
       <c r="B43" s="4" t="s">
-        <v>54</v>
+        <v>58</v>
       </c>
       <c r="C43" s="5">
         <v>40069</v>
@@ -1622,13 +1605,13 @@
     </row>
     <row r="44" spans="1:7" ht="14" thickBot="1">
       <c r="A44" s="3" t="s">
-        <v>12</v>
+        <v>17</v>
       </c>
       <c r="B44" s="4" t="s">
-        <v>55</v>
+        <v>59</v>
       </c>
       <c r="C44" s="5">
-        <v>40073</v>
+        <v>40069</v>
       </c>
       <c r="D44" s="13">
         <v>0</v>
@@ -1642,10 +1625,10 @@
     </row>
     <row r="45" spans="1:7" ht="14" thickBot="1">
       <c r="A45" s="3" t="s">
-        <v>12</v>
+        <v>17</v>
       </c>
       <c r="B45" s="4" t="s">
-        <v>56</v>
+        <v>60</v>
       </c>
       <c r="C45" s="5">
         <v>40073</v>
@@ -1662,13 +1645,13 @@
     </row>
     <row r="46" spans="1:7" ht="14" thickBot="1">
       <c r="A46" s="3" t="s">
-        <v>12</v>
+        <v>17</v>
       </c>
       <c r="B46" s="4" t="s">
-        <v>57</v>
+        <v>61</v>
       </c>
       <c r="C46" s="5">
-        <v>40075</v>
+        <v>40073</v>
       </c>
       <c r="D46" s="13">
         <v>0</v>
@@ -1682,13 +1665,13 @@
     </row>
     <row r="47" spans="1:7" ht="14" thickBot="1">
       <c r="A47" s="3" t="s">
-        <v>14</v>
+        <v>17</v>
       </c>
       <c r="B47" s="4" t="s">
-        <v>58</v>
+        <v>62</v>
       </c>
       <c r="C47" s="5">
-        <v>40077</v>
+        <v>40075</v>
       </c>
       <c r="D47" s="13">
         <v>0</v>
@@ -1702,10 +1685,10 @@
     </row>
     <row r="48" spans="1:7" ht="14" thickBot="1">
       <c r="A48" s="3" t="s">
-        <v>14</v>
+        <v>19</v>
       </c>
       <c r="B48" s="4" t="s">
-        <v>59</v>
+        <v>0</v>
       </c>
       <c r="C48" s="5">
         <v>40077</v>
@@ -1722,13 +1705,13 @@
     </row>
     <row r="49" spans="1:7" ht="14" thickBot="1">
       <c r="A49" s="3" t="s">
-        <v>12</v>
+        <v>19</v>
       </c>
       <c r="B49" s="4" t="s">
-        <v>60</v>
+        <v>1</v>
       </c>
       <c r="C49" s="5">
-        <v>40078</v>
+        <v>40077</v>
       </c>
       <c r="D49" s="13">
         <v>0</v>
@@ -1742,13 +1725,13 @@
     </row>
     <row r="50" spans="1:7" ht="14" thickBot="1">
       <c r="A50" s="3" t="s">
-        <v>12</v>
+        <v>17</v>
       </c>
       <c r="B50" s="4" t="s">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="C50" s="5">
-        <v>40079</v>
+        <v>40078</v>
       </c>
       <c r="D50" s="13">
         <v>0</v>
@@ -1762,28 +1745,47 @@
     </row>
     <row r="51" spans="1:7" ht="14" thickBot="1">
       <c r="A51" s="3" t="s">
-        <v>12</v>
+        <v>17</v>
       </c>
       <c r="B51" s="4" t="s">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="C51" s="5">
         <v>40079</v>
       </c>
-      <c r="D51" s="14">
-        <v>0</v>
-      </c>
-      <c r="E51" s="10"/>
-      <c r="F51" s="5"/>
+      <c r="D51" s="13">
+        <v>0</v>
+      </c>
+      <c r="E51" s="9"/>
+      <c r="F51" s="6"/>
       <c r="G51">
         <f t="shared" ca="1" si="0"/>
         <v>0</v>
       </c>
     </row>
+    <row r="52" spans="1:7" ht="14" thickBot="1">
+      <c r="A52" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="B52" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="C52" s="5">
+        <v>40079</v>
+      </c>
+      <c r="D52" s="14">
+        <v>0</v>
+      </c>
+      <c r="E52" s="10"/>
+      <c r="F52" s="5"/>
+      <c r="G52">
+        <f t="shared" ca="1" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
   </sheetData>
-  <sheetCalcPr fullCalcOnLoad="1"/>
   <phoneticPr fontId="1" type="noConversion"/>
-  <conditionalFormatting sqref="C2:C51">
+  <conditionalFormatting sqref="C2:C52">
     <cfRule type="expression" dxfId="1" priority="0" stopIfTrue="1">
       <formula>G2=1</formula>
     </cfRule>
@@ -1792,7 +1794,6 @@
     </cfRule>
   </conditionalFormatting>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-  <pageSetup orientation="portrait" horizontalDpi="4294967292" verticalDpi="4294967292"/>
   <extLst>
     <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="http://schemas.microsoft.com/office/mac/excel/2008/main">
       <mx:PLV Mode="0" OnePage="0" WScale="0"/>

--- a/Documentation/Project1TaskSpreadsheet.xlsx
+++ b/Documentation/Project1TaskSpreadsheet.xlsx
@@ -19,7 +19,45 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="110" uniqueCount="63">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="112" uniqueCount="65">
+  <si>
+    <t>Write GUI for controlling movement of the Vex</t>
+  </si>
+  <si>
+    <t>Test movement GUI</t>
+  </si>
+  <si>
+    <t>Ensure efficient motor control algorithm</t>
+  </si>
+  <si>
+    <t>Test robot moving forward/back/left/right on 10% grade</t>
+  </si>
+  <si>
+    <t>Read documentation on Vex controller communication</t>
+  </si>
+  <si>
+    <t>Use Bump Sensors</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>May need to do some mechanical fixes for making sure the wheels rotate smoothly</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Create main application loop listening for input</t>
+  </si>
+  <si>
+    <t>Test reception of static speed parameter inputs</t>
+  </si>
+  <si>
+    <t>Calibrate speed based on joystick position</t>
+  </si>
+  <si>
+    <t>Modify control loop for dynamic speed</t>
+  </si>
+  <si>
+    <t>Test dynamic speeds</t>
+  </si>
   <si>
     <t>Modify control loop to allow turning while moving</t>
   </si>
@@ -184,36 +222,6 @@
   </si>
   <si>
     <t>Test communication code</t>
-  </si>
-  <si>
-    <t>Write GUI for controlling movement of the Vex</t>
-  </si>
-  <si>
-    <t>Test movement GUI</t>
-  </si>
-  <si>
-    <t>Ensure efficient motor control algorithm</t>
-  </si>
-  <si>
-    <t>Test robot moving forward/back/left/right on 10% grade</t>
-  </si>
-  <si>
-    <t>Read documentation on Vex controller communication</t>
-  </si>
-  <si>
-    <t>Create main application loop listening for input</t>
-  </si>
-  <si>
-    <t>Test reception of static speed parameter inputs</t>
-  </si>
-  <si>
-    <t>Calibrate speed based on joystick position</t>
-  </si>
-  <si>
-    <t>Modify control loop for dynamic speed</t>
-  </si>
-  <si>
-    <t>Test dynamic speeds</t>
   </si>
 </sst>
 </file>
@@ -705,7 +713,7 @@
   <dimension ref="A1:H52"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="125" workbookViewId="0">
-      <selection activeCell="E16" sqref="E16"/>
+      <selection activeCell="C42" sqref="C42"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="13"/>
@@ -718,37 +726,37 @@
   <sheetData>
     <row r="1" spans="1:8" ht="14" thickBot="1">
       <c r="A1" s="1" t="s">
-        <v>11</v>
+        <v>23</v>
       </c>
       <c r="B1" s="2" t="s">
-        <v>12</v>
+        <v>24</v>
       </c>
       <c r="C1" s="2" t="s">
-        <v>13</v>
+        <v>25</v>
       </c>
       <c r="D1" s="12" t="s">
-        <v>7</v>
+        <v>19</v>
       </c>
       <c r="E1" s="8" t="s">
-        <v>8</v>
+        <v>20</v>
       </c>
       <c r="F1" s="2" t="s">
-        <v>9</v>
+        <v>21</v>
       </c>
       <c r="G1" t="s">
-        <v>10</v>
+        <v>22</v>
       </c>
       <c r="H1" s="7">
         <f ca="1">TODAY()</f>
-        <v>40061</v>
+        <v>40062</v>
       </c>
     </row>
     <row r="2" spans="1:8" ht="14" thickBot="1">
       <c r="A2" s="3" t="s">
-        <v>14</v>
+        <v>26</v>
       </c>
       <c r="B2" s="4" t="s">
-        <v>15</v>
+        <v>27</v>
       </c>
       <c r="C2" s="5">
         <v>40059</v>
@@ -767,10 +775,10 @@
     </row>
     <row r="3" spans="1:8" ht="14" thickBot="1">
       <c r="A3" s="3" t="s">
-        <v>14</v>
+        <v>26</v>
       </c>
       <c r="B3" s="4" t="s">
-        <v>16</v>
+        <v>28</v>
       </c>
       <c r="C3" s="5">
         <v>40059</v>
@@ -789,10 +797,10 @@
     </row>
     <row r="4" spans="1:8" ht="14" thickBot="1">
       <c r="A4" s="3" t="s">
-        <v>17</v>
+        <v>29</v>
       </c>
       <c r="B4" s="4" t="s">
-        <v>18</v>
+        <v>30</v>
       </c>
       <c r="C4" s="5">
         <v>40059</v>
@@ -811,10 +819,10 @@
     </row>
     <row r="5" spans="1:8" ht="14" thickBot="1">
       <c r="A5" s="3" t="s">
-        <v>19</v>
+        <v>31</v>
       </c>
       <c r="B5" s="4" t="s">
-        <v>20</v>
+        <v>32</v>
       </c>
       <c r="C5" s="5">
         <v>40059</v>
@@ -831,10 +839,10 @@
     </row>
     <row r="6" spans="1:8" ht="14" thickBot="1">
       <c r="A6" s="3" t="s">
-        <v>21</v>
+        <v>33</v>
       </c>
       <c r="B6" s="4" t="s">
-        <v>22</v>
+        <v>34</v>
       </c>
       <c r="C6" s="5">
         <v>40059</v>
@@ -853,10 +861,10 @@
     </row>
     <row r="7" spans="1:8" ht="14" thickBot="1">
       <c r="A7" s="3" t="s">
-        <v>14</v>
+        <v>26</v>
       </c>
       <c r="B7" s="4" t="s">
-        <v>23</v>
+        <v>35</v>
       </c>
       <c r="C7" s="5">
         <v>40060</v>
@@ -875,10 +883,10 @@
     </row>
     <row r="8" spans="1:8" ht="14" thickBot="1">
       <c r="A8" s="3" t="s">
-        <v>21</v>
+        <v>33</v>
       </c>
       <c r="B8" s="4" t="s">
-        <v>24</v>
+        <v>36</v>
       </c>
       <c r="C8" s="5">
         <v>40060</v>
@@ -897,10 +905,10 @@
     </row>
     <row r="9" spans="1:8" ht="14" thickBot="1">
       <c r="A9" s="3" t="s">
-        <v>17</v>
+        <v>29</v>
       </c>
       <c r="B9" s="4" t="s">
-        <v>25</v>
+        <v>37</v>
       </c>
       <c r="C9" s="5">
         <v>40061</v>
@@ -919,10 +927,10 @@
     </row>
     <row r="10" spans="1:8" ht="14" thickBot="1">
       <c r="A10" s="3" t="s">
-        <v>19</v>
+        <v>31</v>
       </c>
       <c r="B10" s="4" t="s">
-        <v>26</v>
+        <v>38</v>
       </c>
       <c r="C10" s="5">
         <v>40061</v>
@@ -934,15 +942,15 @@
       <c r="F10" s="6"/>
       <c r="G10">
         <f t="shared" ca="1" si="0"/>
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="11" spans="1:8" ht="14" thickBot="1">
       <c r="A11" s="3" t="s">
-        <v>14</v>
+        <v>26</v>
       </c>
       <c r="B11" s="4" t="s">
-        <v>27</v>
+        <v>39</v>
       </c>
       <c r="C11" s="5">
         <v>40061</v>
@@ -954,15 +962,15 @@
       <c r="F11" s="6"/>
       <c r="G11">
         <f t="shared" ca="1" si="0"/>
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="12" spans="1:8" ht="14" thickBot="1">
       <c r="A12" s="3" t="s">
-        <v>21</v>
+        <v>33</v>
       </c>
       <c r="B12" s="4" t="s">
-        <v>28</v>
+        <v>40</v>
       </c>
       <c r="C12" s="5">
         <v>40061</v>
@@ -974,15 +982,15 @@
       <c r="F12" s="6"/>
       <c r="G12">
         <f t="shared" ca="1" si="0"/>
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="13" spans="1:8" ht="14" thickBot="1">
       <c r="A13" s="3" t="s">
-        <v>17</v>
+        <v>29</v>
       </c>
       <c r="B13" s="4" t="s">
-        <v>29</v>
+        <v>41</v>
       </c>
       <c r="C13" s="5">
         <v>40061</v>
@@ -994,15 +1002,15 @@
       <c r="F13" s="6"/>
       <c r="G13">
         <f t="shared" ca="1" si="0"/>
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="14" spans="1:8" ht="14" thickBot="1">
       <c r="A14" s="3" t="s">
-        <v>14</v>
+        <v>26</v>
       </c>
       <c r="B14" s="4" t="s">
-        <v>30</v>
+        <v>42</v>
       </c>
       <c r="C14" s="5">
         <v>40061</v>
@@ -1021,10 +1029,10 @@
     </row>
     <row r="15" spans="1:8" ht="14" thickBot="1">
       <c r="A15" s="3" t="s">
-        <v>19</v>
+        <v>31</v>
       </c>
       <c r="B15" s="4" t="s">
-        <v>31</v>
+        <v>43</v>
       </c>
       <c r="C15" s="5">
         <v>40061</v>
@@ -1043,10 +1051,10 @@
     </row>
     <row r="16" spans="1:8" ht="14" thickBot="1">
       <c r="A16" s="3" t="s">
-        <v>3</v>
+        <v>15</v>
       </c>
       <c r="B16" s="4" t="s">
-        <v>4</v>
+        <v>16</v>
       </c>
       <c r="C16" s="5">
         <v>40063</v>
@@ -1063,13 +1071,13 @@
     </row>
     <row r="17" spans="1:7" ht="14" thickBot="1">
       <c r="A17" s="3" t="s">
-        <v>21</v>
+        <v>33</v>
       </c>
       <c r="B17" s="4" t="s">
-        <v>32</v>
+        <v>44</v>
       </c>
       <c r="C17" s="5" t="s">
-        <v>33</v>
+        <v>45</v>
       </c>
       <c r="D17" s="13">
         <v>0</v>
@@ -1083,18 +1091,20 @@
     </row>
     <row r="18" spans="1:7" ht="14" thickBot="1">
       <c r="A18" s="3" t="s">
-        <v>21</v>
+        <v>33</v>
       </c>
       <c r="B18" s="4" t="s">
-        <v>34</v>
+        <v>46</v>
       </c>
       <c r="C18" s="5">
         <v>40063</v>
       </c>
       <c r="D18" s="13">
-        <v>0</v>
-      </c>
-      <c r="E18" s="9"/>
+        <v>1</v>
+      </c>
+      <c r="E18" s="9">
+        <v>40062</v>
+      </c>
       <c r="F18" s="6"/>
       <c r="G18">
         <f t="shared" ca="1" si="0"/>
@@ -1103,10 +1113,10 @@
     </row>
     <row r="19" spans="1:7" ht="14" thickBot="1">
       <c r="A19" s="3" t="s">
-        <v>21</v>
+        <v>33</v>
       </c>
       <c r="B19" s="4" t="s">
-        <v>35</v>
+        <v>47</v>
       </c>
       <c r="C19" s="5">
         <v>40061</v>
@@ -1125,18 +1135,20 @@
     </row>
     <row r="20" spans="1:7" ht="14" thickBot="1">
       <c r="A20" s="3" t="s">
-        <v>21</v>
+        <v>33</v>
       </c>
       <c r="B20" s="4" t="s">
-        <v>36</v>
+        <v>48</v>
       </c>
       <c r="C20" s="5">
         <v>40063</v>
       </c>
       <c r="D20" s="13">
-        <v>0</v>
-      </c>
-      <c r="E20" s="9"/>
+        <v>1</v>
+      </c>
+      <c r="E20" s="9">
+        <v>40062</v>
+      </c>
       <c r="F20" s="6"/>
       <c r="G20">
         <f t="shared" ca="1" si="0"/>
@@ -1145,18 +1157,20 @@
     </row>
     <row r="21" spans="1:7" ht="14" thickBot="1">
       <c r="A21" s="3" t="s">
-        <v>21</v>
+        <v>33</v>
       </c>
       <c r="B21" s="4" t="s">
-        <v>37</v>
+        <v>49</v>
       </c>
       <c r="C21" s="5">
         <v>40063</v>
       </c>
       <c r="D21" s="13">
-        <v>0</v>
-      </c>
-      <c r="E21" s="9"/>
+        <v>1</v>
+      </c>
+      <c r="E21" s="9">
+        <v>40062</v>
+      </c>
       <c r="F21" s="6"/>
       <c r="G21">
         <f t="shared" ca="1" si="0"/>
@@ -1165,18 +1179,20 @@
     </row>
     <row r="22" spans="1:7" ht="14" thickBot="1">
       <c r="A22" s="3" t="s">
-        <v>21</v>
+        <v>33</v>
       </c>
       <c r="B22" s="4" t="s">
-        <v>38</v>
+        <v>50</v>
       </c>
       <c r="C22" s="5">
         <v>40063</v>
       </c>
       <c r="D22" s="13">
-        <v>0</v>
-      </c>
-      <c r="E22" s="9"/>
+        <v>1</v>
+      </c>
+      <c r="E22" s="9">
+        <v>40062</v>
+      </c>
       <c r="F22" s="6"/>
       <c r="G22">
         <f t="shared" ca="1" si="0"/>
@@ -1185,18 +1201,20 @@
     </row>
     <row r="23" spans="1:7" ht="14" thickBot="1">
       <c r="A23" s="3" t="s">
-        <v>21</v>
+        <v>33</v>
       </c>
       <c r="B23" s="4" t="s">
-        <v>39</v>
+        <v>51</v>
       </c>
       <c r="C23" s="5">
         <v>40063</v>
       </c>
       <c r="D23" s="13">
-        <v>0</v>
-      </c>
-      <c r="E23" s="9"/>
+        <v>1</v>
+      </c>
+      <c r="E23" s="9">
+        <v>40062</v>
+      </c>
       <c r="F23" s="6"/>
       <c r="G23">
         <f t="shared" ca="1" si="0"/>
@@ -1205,19 +1223,23 @@
     </row>
     <row r="24" spans="1:7" ht="14" thickBot="1">
       <c r="A24" s="3" t="s">
-        <v>21</v>
+        <v>33</v>
       </c>
       <c r="B24" s="4" t="s">
-        <v>40</v>
+        <v>52</v>
       </c>
       <c r="C24" s="5">
         <v>40063</v>
       </c>
       <c r="D24" s="13">
-        <v>0</v>
-      </c>
-      <c r="E24" s="9"/>
-      <c r="F24" s="6"/>
+        <v>1</v>
+      </c>
+      <c r="E24" s="9">
+        <v>40062</v>
+      </c>
+      <c r="F24" s="6" t="s">
+        <v>6</v>
+      </c>
       <c r="G24">
         <f t="shared" ca="1" si="0"/>
         <v>0</v>
@@ -1225,18 +1247,20 @@
     </row>
     <row r="25" spans="1:7" ht="14" thickBot="1">
       <c r="A25" s="3" t="s">
-        <v>21</v>
+        <v>33</v>
       </c>
       <c r="B25" s="4" t="s">
-        <v>41</v>
+        <v>53</v>
       </c>
       <c r="C25" s="5">
         <v>40063</v>
       </c>
       <c r="D25" s="13">
-        <v>0</v>
-      </c>
-      <c r="E25" s="9"/>
+        <v>1</v>
+      </c>
+      <c r="E25" s="9">
+        <v>40062</v>
+      </c>
       <c r="F25" s="6"/>
       <c r="G25">
         <f t="shared" ca="1" si="0"/>
@@ -1245,19 +1269,23 @@
     </row>
     <row r="26" spans="1:7" ht="14" thickBot="1">
       <c r="A26" s="3" t="s">
-        <v>21</v>
+        <v>33</v>
       </c>
       <c r="B26" s="4" t="s">
-        <v>42</v>
+        <v>54</v>
       </c>
       <c r="C26" s="5">
         <v>40066</v>
       </c>
       <c r="D26" s="13">
-        <v>0</v>
-      </c>
-      <c r="E26" s="9"/>
-      <c r="F26" s="6"/>
+        <v>1</v>
+      </c>
+      <c r="E26" s="9">
+        <v>40062</v>
+      </c>
+      <c r="F26" s="6" t="s">
+        <v>5</v>
+      </c>
       <c r="G26">
         <f t="shared" ca="1" si="0"/>
         <v>0</v>
@@ -1265,10 +1293,10 @@
     </row>
     <row r="27" spans="1:7" ht="14" thickBot="1">
       <c r="A27" s="3" t="s">
-        <v>21</v>
+        <v>33</v>
       </c>
       <c r="B27" s="4" t="s">
-        <v>43</v>
+        <v>55</v>
       </c>
       <c r="C27" s="5">
         <v>40066</v>
@@ -1285,10 +1313,10 @@
     </row>
     <row r="28" spans="1:7" ht="14" thickBot="1">
       <c r="A28" s="3" t="s">
-        <v>21</v>
+        <v>33</v>
       </c>
       <c r="B28" s="4" t="s">
-        <v>44</v>
+        <v>56</v>
       </c>
       <c r="C28" s="5">
         <v>40069</v>
@@ -1305,10 +1333,10 @@
     </row>
     <row r="29" spans="1:7" ht="14" thickBot="1">
       <c r="A29" s="3" t="s">
-        <v>21</v>
+        <v>33</v>
       </c>
       <c r="B29" s="4" t="s">
-        <v>45</v>
+        <v>57</v>
       </c>
       <c r="C29" s="5">
         <v>40070</v>
@@ -1325,10 +1353,10 @@
     </row>
     <row r="30" spans="1:7" ht="14" thickBot="1">
       <c r="A30" s="3" t="s">
-        <v>19</v>
+        <v>31</v>
       </c>
       <c r="B30" s="4" t="s">
-        <v>46</v>
+        <v>58</v>
       </c>
       <c r="C30" s="5">
         <v>40061</v>
@@ -1340,15 +1368,15 @@
       <c r="F30" s="6"/>
       <c r="G30">
         <f t="shared" ca="1" si="0"/>
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="31" spans="1:7" ht="14" thickBot="1">
       <c r="A31" s="3" t="s">
-        <v>19</v>
+        <v>31</v>
       </c>
       <c r="B31" s="4" t="s">
-        <v>47</v>
+        <v>59</v>
       </c>
       <c r="C31" s="5">
         <v>40066</v>
@@ -1365,10 +1393,10 @@
     </row>
     <row r="32" spans="1:7" ht="14" thickBot="1">
       <c r="A32" s="3" t="s">
-        <v>19</v>
+        <v>31</v>
       </c>
       <c r="B32" s="4" t="s">
-        <v>48</v>
+        <v>60</v>
       </c>
       <c r="C32" s="5">
         <v>40069</v>
@@ -1385,10 +1413,10 @@
     </row>
     <row r="33" spans="1:7" ht="14" thickBot="1">
       <c r="A33" s="3" t="s">
-        <v>19</v>
+        <v>31</v>
       </c>
       <c r="B33" s="4" t="s">
-        <v>49</v>
+        <v>61</v>
       </c>
       <c r="C33" s="5">
         <v>40070</v>
@@ -1405,10 +1433,10 @@
     </row>
     <row r="34" spans="1:7" ht="14" thickBot="1">
       <c r="A34" s="3" t="s">
-        <v>14</v>
+        <v>26</v>
       </c>
       <c r="B34" s="4" t="s">
-        <v>50</v>
+        <v>62</v>
       </c>
       <c r="C34" s="5">
         <v>40061</v>
@@ -1420,15 +1448,15 @@
       <c r="F34" s="6"/>
       <c r="G34">
         <f t="shared" ca="1" si="0"/>
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="35" spans="1:7" ht="14" thickBot="1">
       <c r="A35" s="3" t="s">
-        <v>14</v>
+        <v>26</v>
       </c>
       <c r="B35" s="4" t="s">
-        <v>51</v>
+        <v>63</v>
       </c>
       <c r="C35" s="5">
         <v>40066</v>
@@ -1445,10 +1473,10 @@
     </row>
     <row r="36" spans="1:7" ht="14" thickBot="1">
       <c r="A36" s="3" t="s">
-        <v>14</v>
+        <v>26</v>
       </c>
       <c r="B36" s="4" t="s">
-        <v>48</v>
+        <v>60</v>
       </c>
       <c r="C36" s="5">
         <v>40069</v>
@@ -1465,10 +1493,10 @@
     </row>
     <row r="37" spans="1:7" ht="14" thickBot="1">
       <c r="A37" s="3" t="s">
-        <v>14</v>
+        <v>26</v>
       </c>
       <c r="B37" s="4" t="s">
-        <v>52</v>
+        <v>64</v>
       </c>
       <c r="C37" s="5">
         <v>40070</v>
@@ -1485,10 +1513,10 @@
     </row>
     <row r="38" spans="1:7" ht="14" thickBot="1">
       <c r="A38" s="3" t="s">
-        <v>19</v>
+        <v>31</v>
       </c>
       <c r="B38" s="4" t="s">
-        <v>53</v>
+        <v>0</v>
       </c>
       <c r="C38" s="5">
         <v>40073</v>
@@ -1505,10 +1533,10 @@
     </row>
     <row r="39" spans="1:7" ht="14" thickBot="1">
       <c r="A39" s="3" t="s">
-        <v>19</v>
+        <v>31</v>
       </c>
       <c r="B39" s="4" t="s">
-        <v>54</v>
+        <v>1</v>
       </c>
       <c r="C39" s="5">
         <v>40074</v>
@@ -1525,10 +1553,10 @@
     </row>
     <row r="40" spans="1:7" ht="14" thickBot="1">
       <c r="A40" s="3" t="s">
-        <v>14</v>
+        <v>26</v>
       </c>
       <c r="B40" s="4" t="s">
-        <v>55</v>
+        <v>2</v>
       </c>
       <c r="C40" s="5">
         <v>40076</v>
@@ -1545,10 +1573,10 @@
     </row>
     <row r="41" spans="1:7" ht="14" thickBot="1">
       <c r="A41" s="3" t="s">
-        <v>14</v>
+        <v>26</v>
       </c>
       <c r="B41" s="4" t="s">
-        <v>56</v>
+        <v>3</v>
       </c>
       <c r="C41" s="5">
         <v>40076</v>
@@ -1565,10 +1593,10 @@
     </row>
     <row r="42" spans="1:7" ht="14" thickBot="1">
       <c r="A42" s="3" t="s">
-        <v>17</v>
+        <v>29</v>
       </c>
       <c r="B42" s="4" t="s">
-        <v>57</v>
+        <v>4</v>
       </c>
       <c r="C42" s="5">
         <v>40063</v>
@@ -1585,10 +1613,10 @@
     </row>
     <row r="43" spans="1:7" ht="14" thickBot="1">
       <c r="A43" s="3" t="s">
-        <v>17</v>
+        <v>29</v>
       </c>
       <c r="B43" s="4" t="s">
-        <v>58</v>
+        <v>7</v>
       </c>
       <c r="C43" s="5">
         <v>40069</v>
@@ -1605,10 +1633,10 @@
     </row>
     <row r="44" spans="1:7" ht="14" thickBot="1">
       <c r="A44" s="3" t="s">
-        <v>17</v>
+        <v>29</v>
       </c>
       <c r="B44" s="4" t="s">
-        <v>59</v>
+        <v>8</v>
       </c>
       <c r="C44" s="5">
         <v>40069</v>
@@ -1625,10 +1653,10 @@
     </row>
     <row r="45" spans="1:7" ht="14" thickBot="1">
       <c r="A45" s="3" t="s">
-        <v>17</v>
+        <v>29</v>
       </c>
       <c r="B45" s="4" t="s">
-        <v>60</v>
+        <v>9</v>
       </c>
       <c r="C45" s="5">
         <v>40073</v>
@@ -1645,10 +1673,10 @@
     </row>
     <row r="46" spans="1:7" ht="14" thickBot="1">
       <c r="A46" s="3" t="s">
-        <v>17</v>
+        <v>29</v>
       </c>
       <c r="B46" s="4" t="s">
-        <v>61</v>
+        <v>10</v>
       </c>
       <c r="C46" s="5">
         <v>40073</v>
@@ -1665,10 +1693,10 @@
     </row>
     <row r="47" spans="1:7" ht="14" thickBot="1">
       <c r="A47" s="3" t="s">
-        <v>17</v>
+        <v>29</v>
       </c>
       <c r="B47" s="4" t="s">
-        <v>62</v>
+        <v>11</v>
       </c>
       <c r="C47" s="5">
         <v>40075</v>
@@ -1685,10 +1713,10 @@
     </row>
     <row r="48" spans="1:7" ht="14" thickBot="1">
       <c r="A48" s="3" t="s">
-        <v>19</v>
+        <v>31</v>
       </c>
       <c r="B48" s="4" t="s">
-        <v>0</v>
+        <v>12</v>
       </c>
       <c r="C48" s="5">
         <v>40077</v>
@@ -1705,10 +1733,10 @@
     </row>
     <row r="49" spans="1:7" ht="14" thickBot="1">
       <c r="A49" s="3" t="s">
-        <v>19</v>
+        <v>31</v>
       </c>
       <c r="B49" s="4" t="s">
-        <v>1</v>
+        <v>13</v>
       </c>
       <c r="C49" s="5">
         <v>40077</v>
@@ -1725,10 +1753,10 @@
     </row>
     <row r="50" spans="1:7" ht="14" thickBot="1">
       <c r="A50" s="3" t="s">
-        <v>17</v>
+        <v>29</v>
       </c>
       <c r="B50" s="4" t="s">
-        <v>2</v>
+        <v>14</v>
       </c>
       <c r="C50" s="5">
         <v>40078</v>
@@ -1745,10 +1773,10 @@
     </row>
     <row r="51" spans="1:7" ht="14" thickBot="1">
       <c r="A51" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="B51" s="4" t="s">
         <v>17</v>
-      </c>
-      <c r="B51" s="4" t="s">
-        <v>5</v>
       </c>
       <c r="C51" s="5">
         <v>40079</v>
@@ -1765,10 +1793,10 @@
     </row>
     <row r="52" spans="1:7" ht="14" thickBot="1">
       <c r="A52" s="3" t="s">
-        <v>17</v>
+        <v>29</v>
       </c>
       <c r="B52" s="4" t="s">
-        <v>6</v>
+        <v>18</v>
       </c>
       <c r="C52" s="5">
         <v>40079</v>
@@ -1784,6 +1812,7 @@
       </c>
     </row>
   </sheetData>
+  <sheetCalcPr fullCalcOnLoad="1"/>
   <phoneticPr fontId="1" type="noConversion"/>
   <conditionalFormatting sqref="C2:C52">
     <cfRule type="expression" dxfId="1" priority="0" stopIfTrue="1">

--- a/Documentation/Project1TaskSpreadsheet.xlsx
+++ b/Documentation/Project1TaskSpreadsheet.xlsx
@@ -1,7 +1,7 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="4" rupBuild="23206"/>
+  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
   <workbookPr date1904="1" showInkAnnotation="0" autoCompressPictures="0"/>
   <bookViews>
     <workbookView xWindow="240" yWindow="240" windowWidth="25360" windowHeight="15820" tabRatio="500"/>
@@ -9,9 +9,9 @@
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="140001" concurrentCalc="0"/>
+  <calcPr calcId="130407" concurrentCalc="0"/>
   <extLst>
-    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{7523E5D3-25F3-A5E0-1632-64F254C22452}">
+    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="http://schemas.microsoft.com/office/mac/excel/2008/main">
       <mx:ArchID Flags="2"/>
     </ext>
   </extLst>
@@ -21,6 +21,36 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="114" uniqueCount="67">
   <si>
+    <t>Test obstacle avoidance</t>
+  </si>
+  <si>
+    <t>Choose communication medium between Phone/Tablet</t>
+  </si>
+  <si>
+    <t>Learn to use this medium for android</t>
+  </si>
+  <si>
+    <t>Write communication code</t>
+  </si>
+  <si>
+    <t>Send test traffic across communication channel</t>
+  </si>
+  <si>
+    <t>Choose communication medium between Vex/Tablet</t>
+  </si>
+  <si>
+    <t>Learn to send/receive this communication</t>
+  </si>
+  <si>
+    <t>Test communication code</t>
+  </si>
+  <si>
+    <t>Jerrell started this. Documentation and code is uploaded.</t>
+  </si>
+  <si>
+    <t>Wi-Fi.</t>
+  </si>
+  <si>
     <t>Write GUI for controlling movement of the Vex</t>
   </si>
   <si>
@@ -198,46 +228,16 @@
   </si>
   <si>
     <t>Code object avoidance</t>
-  </si>
-  <si>
-    <t>Test obstacle avoidance</t>
-  </si>
-  <si>
-    <t>Choose communication medium between Phone/Tablet</t>
-  </si>
-  <si>
-    <t>Learn to use this medium for android</t>
-  </si>
-  <si>
-    <t>Write communication code</t>
-  </si>
-  <si>
-    <t>Send test traffic across communication channel</t>
-  </si>
-  <si>
-    <t>Choose communication medium between Vex/Tablet</t>
-  </si>
-  <si>
-    <t>Learn to send/receive this communication</t>
-  </si>
-  <si>
-    <t>Test communication code</t>
-  </si>
-  <si>
-    <t>Jerrell started this. Documentation and code is uploaded.</t>
-  </si>
-  <si>
-    <t>Wi-Fi.</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="mm/dd/yy"/>
   </numFmts>
-  <fonts count="5" x14ac:knownFonts="1">
+  <fonts count="5">
     <font>
       <sz val="10"/>
       <name val="Verdana"/>
@@ -253,13 +253,13 @@
     <font>
       <u/>
       <sz val="10"/>
-      <color theme="10"/>
+      <color indexed="12"/>
       <name val="Verdana"/>
     </font>
     <font>
       <u/>
       <sz val="10"/>
-      <color theme="11"/>
+      <color indexed="20"/>
       <name val="Verdana"/>
     </font>
   </fonts>
@@ -352,10 +352,8 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="5">
+  <cellStyleXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
@@ -401,11 +399,9 @@
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1"/>
   </cellXfs>
-  <cellStyles count="5">
+  <cellStyles count="3">
     <cellStyle name="Followed Hyperlink" xfId="2" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="4" builtinId="9" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="1" builtinId="8" hidden="1"/>
-    <cellStyle name="Hyperlink" xfId="3" builtinId="8" hidden="1"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="2">
@@ -424,7 +420,7 @@
       </fill>
     </dxf>
   </dxfs>
-  <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleMedium4"/>
+  <tableStyles count="0" defaultTableStyle="TableStyleMedium9"/>
 </styleSheet>
 </file>
 
@@ -747,14 +743,14 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:mv="urn:schemas-microsoft-com:mac:vml" mc:Ignorable="mv" mc:PreserveAttributes="mv:*">
   <dimension ref="A1:H52"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A7" zoomScale="125" workbookViewId="0">
-      <selection activeCell="F30" sqref="F30"/>
+    <sheetView tabSelected="1" topLeftCell="A3" zoomScale="125" workbookViewId="0">
+      <selection activeCell="D14" sqref="D14"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="13" x14ac:dyDescent="0"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="13"/>
   <cols>
     <col min="2" max="2" width="33.42578125" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="11.42578125" style="11" bestFit="1" customWidth="1"/>
@@ -764,37 +760,37 @@
   <sheetData>
     <row r="1" spans="1:8" ht="14" thickBot="1">
       <c r="A1" s="1" t="s">
-        <v>23</v>
+        <v>33</v>
       </c>
       <c r="B1" s="2" t="s">
-        <v>24</v>
+        <v>34</v>
       </c>
       <c r="C1" s="2" t="s">
-        <v>25</v>
+        <v>35</v>
       </c>
       <c r="D1" s="12" t="s">
-        <v>19</v>
+        <v>29</v>
       </c>
       <c r="E1" s="8" t="s">
-        <v>20</v>
+        <v>30</v>
       </c>
       <c r="F1" s="2" t="s">
-        <v>21</v>
+        <v>31</v>
       </c>
       <c r="G1" t="s">
-        <v>22</v>
+        <v>32</v>
       </c>
       <c r="H1" s="7">
         <f ca="1">TODAY()</f>
-        <v>40062</v>
+        <v>40063</v>
       </c>
     </row>
     <row r="2" spans="1:8" ht="14" thickBot="1">
       <c r="A2" s="3" t="s">
-        <v>26</v>
+        <v>36</v>
       </c>
       <c r="B2" s="4" t="s">
-        <v>27</v>
+        <v>37</v>
       </c>
       <c r="C2" s="5">
         <v>40059</v>
@@ -813,10 +809,10 @@
     </row>
     <row r="3" spans="1:8" ht="14" thickBot="1">
       <c r="A3" s="3" t="s">
-        <v>26</v>
+        <v>36</v>
       </c>
       <c r="B3" s="4" t="s">
-        <v>28</v>
+        <v>38</v>
       </c>
       <c r="C3" s="5">
         <v>40059</v>
@@ -835,10 +831,10 @@
     </row>
     <row r="4" spans="1:8" ht="14" thickBot="1">
       <c r="A4" s="3" t="s">
-        <v>29</v>
+        <v>39</v>
       </c>
       <c r="B4" s="4" t="s">
-        <v>30</v>
+        <v>40</v>
       </c>
       <c r="C4" s="5">
         <v>40059</v>
@@ -857,10 +853,10 @@
     </row>
     <row r="5" spans="1:8" ht="14" thickBot="1">
       <c r="A5" s="3" t="s">
-        <v>31</v>
+        <v>41</v>
       </c>
       <c r="B5" s="4" t="s">
-        <v>32</v>
+        <v>42</v>
       </c>
       <c r="C5" s="5">
         <v>40059</v>
@@ -877,10 +873,10 @@
     </row>
     <row r="6" spans="1:8" ht="14" thickBot="1">
       <c r="A6" s="3" t="s">
-        <v>33</v>
+        <v>43</v>
       </c>
       <c r="B6" s="4" t="s">
-        <v>34</v>
+        <v>44</v>
       </c>
       <c r="C6" s="5">
         <v>40059</v>
@@ -899,10 +895,10 @@
     </row>
     <row r="7" spans="1:8" ht="14" thickBot="1">
       <c r="A7" s="3" t="s">
-        <v>26</v>
+        <v>36</v>
       </c>
       <c r="B7" s="4" t="s">
-        <v>35</v>
+        <v>45</v>
       </c>
       <c r="C7" s="5">
         <v>40060</v>
@@ -921,10 +917,10 @@
     </row>
     <row r="8" spans="1:8" ht="14" thickBot="1">
       <c r="A8" s="3" t="s">
-        <v>33</v>
+        <v>43</v>
       </c>
       <c r="B8" s="4" t="s">
-        <v>36</v>
+        <v>46</v>
       </c>
       <c r="C8" s="5">
         <v>40060</v>
@@ -943,10 +939,10 @@
     </row>
     <row r="9" spans="1:8" ht="14" thickBot="1">
       <c r="A9" s="3" t="s">
-        <v>29</v>
+        <v>39</v>
       </c>
       <c r="B9" s="4" t="s">
-        <v>37</v>
+        <v>47</v>
       </c>
       <c r="C9" s="5">
         <v>40061</v>
@@ -965,30 +961,30 @@
     </row>
     <row r="10" spans="1:8" ht="14" thickBot="1">
       <c r="A10" s="3" t="s">
-        <v>31</v>
+        <v>41</v>
       </c>
       <c r="B10" s="4" t="s">
-        <v>38</v>
+        <v>48</v>
       </c>
       <c r="C10" s="5">
         <v>40061</v>
       </c>
       <c r="D10" s="13">
-        <v>0.75</v>
+        <v>1</v>
       </c>
       <c r="E10" s="9"/>
       <c r="F10" s="6"/>
       <c r="G10">
         <f t="shared" ca="1" si="0"/>
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="11" spans="1:8" ht="14" thickBot="1">
       <c r="A11" s="3" t="s">
-        <v>26</v>
+        <v>36</v>
       </c>
       <c r="B11" s="4" t="s">
-        <v>39</v>
+        <v>49</v>
       </c>
       <c r="C11" s="5">
         <v>40061</v>
@@ -1005,50 +1001,50 @@
     </row>
     <row r="12" spans="1:8" ht="14" thickBot="1">
       <c r="A12" s="3" t="s">
-        <v>33</v>
+        <v>43</v>
       </c>
       <c r="B12" s="4" t="s">
-        <v>40</v>
+        <v>50</v>
       </c>
       <c r="C12" s="5">
         <v>40061</v>
       </c>
       <c r="D12" s="13">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E12" s="9"/>
       <c r="F12" s="6"/>
       <c r="G12">
         <f t="shared" ca="1" si="0"/>
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="13" spans="1:8" ht="14" thickBot="1">
       <c r="A13" s="3" t="s">
-        <v>29</v>
+        <v>39</v>
       </c>
       <c r="B13" s="4" t="s">
-        <v>41</v>
+        <v>51</v>
       </c>
       <c r="C13" s="5">
         <v>40061</v>
       </c>
       <c r="D13" s="13">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E13" s="9"/>
       <c r="F13" s="6"/>
       <c r="G13">
         <f t="shared" ca="1" si="0"/>
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="14" spans="1:8" ht="14" thickBot="1">
       <c r="A14" s="3" t="s">
-        <v>26</v>
+        <v>36</v>
       </c>
       <c r="B14" s="4" t="s">
-        <v>42</v>
+        <v>52</v>
       </c>
       <c r="C14" s="5">
         <v>40061</v>
@@ -1067,10 +1063,10 @@
     </row>
     <row r="15" spans="1:8" ht="14" thickBot="1">
       <c r="A15" s="3" t="s">
-        <v>31</v>
+        <v>41</v>
       </c>
       <c r="B15" s="4" t="s">
-        <v>43</v>
+        <v>53</v>
       </c>
       <c r="C15" s="5">
         <v>40061</v>
@@ -1089,10 +1085,10 @@
     </row>
     <row r="16" spans="1:8" ht="14" thickBot="1">
       <c r="A16" s="3" t="s">
-        <v>15</v>
+        <v>25</v>
       </c>
       <c r="B16" s="4" t="s">
-        <v>16</v>
+        <v>26</v>
       </c>
       <c r="C16" s="5">
         <v>40063</v>
@@ -1109,13 +1105,13 @@
     </row>
     <row r="17" spans="1:7" ht="14" thickBot="1">
       <c r="A17" s="3" t="s">
-        <v>33</v>
+        <v>43</v>
       </c>
       <c r="B17" s="4" t="s">
-        <v>44</v>
+        <v>54</v>
       </c>
       <c r="C17" s="5" t="s">
-        <v>45</v>
+        <v>55</v>
       </c>
       <c r="D17" s="13">
         <v>0</v>
@@ -1129,10 +1125,10 @@
     </row>
     <row r="18" spans="1:7" ht="14" thickBot="1">
       <c r="A18" s="3" t="s">
-        <v>33</v>
+        <v>43</v>
       </c>
       <c r="B18" s="4" t="s">
-        <v>46</v>
+        <v>56</v>
       </c>
       <c r="C18" s="5">
         <v>40063</v>
@@ -1151,10 +1147,10 @@
     </row>
     <row r="19" spans="1:7" ht="14" thickBot="1">
       <c r="A19" s="3" t="s">
-        <v>33</v>
+        <v>43</v>
       </c>
       <c r="B19" s="4" t="s">
-        <v>47</v>
+        <v>57</v>
       </c>
       <c r="C19" s="5">
         <v>40061</v>
@@ -1173,10 +1169,10 @@
     </row>
     <row r="20" spans="1:7" ht="14" thickBot="1">
       <c r="A20" s="3" t="s">
-        <v>33</v>
+        <v>43</v>
       </c>
       <c r="B20" s="4" t="s">
-        <v>48</v>
+        <v>58</v>
       </c>
       <c r="C20" s="5">
         <v>40063</v>
@@ -1195,10 +1191,10 @@
     </row>
     <row r="21" spans="1:7" ht="14" thickBot="1">
       <c r="A21" s="3" t="s">
-        <v>33</v>
+        <v>43</v>
       </c>
       <c r="B21" s="4" t="s">
-        <v>49</v>
+        <v>59</v>
       </c>
       <c r="C21" s="5">
         <v>40063</v>
@@ -1217,10 +1213,10 @@
     </row>
     <row r="22" spans="1:7" ht="14" thickBot="1">
       <c r="A22" s="3" t="s">
-        <v>33</v>
+        <v>43</v>
       </c>
       <c r="B22" s="4" t="s">
-        <v>50</v>
+        <v>60</v>
       </c>
       <c r="C22" s="5">
         <v>40063</v>
@@ -1239,10 +1235,10 @@
     </row>
     <row r="23" spans="1:7" ht="14" thickBot="1">
       <c r="A23" s="3" t="s">
-        <v>33</v>
+        <v>43</v>
       </c>
       <c r="B23" s="4" t="s">
-        <v>51</v>
+        <v>61</v>
       </c>
       <c r="C23" s="5">
         <v>40063</v>
@@ -1261,10 +1257,10 @@
     </row>
     <row r="24" spans="1:7" ht="14" thickBot="1">
       <c r="A24" s="3" t="s">
-        <v>33</v>
+        <v>43</v>
       </c>
       <c r="B24" s="4" t="s">
-        <v>52</v>
+        <v>62</v>
       </c>
       <c r="C24" s="5">
         <v>40063</v>
@@ -1276,7 +1272,7 @@
         <v>40062</v>
       </c>
       <c r="F24" s="6" t="s">
-        <v>6</v>
+        <v>16</v>
       </c>
       <c r="G24">
         <f t="shared" ca="1" si="0"/>
@@ -1285,10 +1281,10 @@
     </row>
     <row r="25" spans="1:7" ht="14" thickBot="1">
       <c r="A25" s="3" t="s">
-        <v>33</v>
+        <v>43</v>
       </c>
       <c r="B25" s="4" t="s">
-        <v>53</v>
+        <v>63</v>
       </c>
       <c r="C25" s="5">
         <v>40063</v>
@@ -1307,10 +1303,10 @@
     </row>
     <row r="26" spans="1:7" ht="14" thickBot="1">
       <c r="A26" s="3" t="s">
-        <v>33</v>
+        <v>43</v>
       </c>
       <c r="B26" s="4" t="s">
-        <v>54</v>
+        <v>64</v>
       </c>
       <c r="C26" s="5">
         <v>40066</v>
@@ -1322,7 +1318,7 @@
         <v>40062</v>
       </c>
       <c r="F26" s="6" t="s">
-        <v>5</v>
+        <v>15</v>
       </c>
       <c r="G26">
         <f t="shared" ca="1" si="0"/>
@@ -1331,10 +1327,10 @@
     </row>
     <row r="27" spans="1:7" ht="14" thickBot="1">
       <c r="A27" s="3" t="s">
-        <v>33</v>
+        <v>43</v>
       </c>
       <c r="B27" s="4" t="s">
-        <v>55</v>
+        <v>65</v>
       </c>
       <c r="C27" s="5">
         <v>40066</v>
@@ -1351,10 +1347,10 @@
     </row>
     <row r="28" spans="1:7" ht="14" thickBot="1">
       <c r="A28" s="3" t="s">
-        <v>33</v>
+        <v>43</v>
       </c>
       <c r="B28" s="4" t="s">
-        <v>56</v>
+        <v>66</v>
       </c>
       <c r="C28" s="5">
         <v>40069</v>
@@ -1371,10 +1367,10 @@
     </row>
     <row r="29" spans="1:7" ht="14" thickBot="1">
       <c r="A29" s="3" t="s">
-        <v>33</v>
+        <v>43</v>
       </c>
       <c r="B29" s="4" t="s">
-        <v>57</v>
+        <v>0</v>
       </c>
       <c r="C29" s="5">
         <v>40070</v>
@@ -1391,10 +1387,10 @@
     </row>
     <row r="30" spans="1:7" ht="14" thickBot="1">
       <c r="A30" s="3" t="s">
-        <v>31</v>
+        <v>41</v>
       </c>
       <c r="B30" s="4" t="s">
-        <v>58</v>
+        <v>1</v>
       </c>
       <c r="C30" s="5">
         <v>40061</v>
@@ -1406,7 +1402,7 @@
         <v>40062</v>
       </c>
       <c r="F30" s="15" t="s">
-        <v>66</v>
+        <v>9</v>
       </c>
       <c r="G30">
         <f t="shared" ca="1" si="0"/>
@@ -1415,10 +1411,10 @@
     </row>
     <row r="31" spans="1:7" ht="14" thickBot="1">
       <c r="A31" s="3" t="s">
-        <v>31</v>
+        <v>41</v>
       </c>
       <c r="B31" s="4" t="s">
-        <v>59</v>
+        <v>2</v>
       </c>
       <c r="C31" s="5">
         <v>40066</v>
@@ -1435,10 +1431,10 @@
     </row>
     <row r="32" spans="1:7" ht="14" thickBot="1">
       <c r="A32" s="3" t="s">
-        <v>31</v>
+        <v>41</v>
       </c>
       <c r="B32" s="4" t="s">
-        <v>60</v>
+        <v>3</v>
       </c>
       <c r="C32" s="5">
         <v>40069</v>
@@ -1448,7 +1444,7 @@
       </c>
       <c r="E32" s="9"/>
       <c r="F32" s="6" t="s">
-        <v>65</v>
+        <v>8</v>
       </c>
       <c r="G32">
         <f t="shared" ca="1" si="0"/>
@@ -1457,10 +1453,10 @@
     </row>
     <row r="33" spans="1:7" ht="14" thickBot="1">
       <c r="A33" s="3" t="s">
-        <v>31</v>
+        <v>41</v>
       </c>
       <c r="B33" s="4" t="s">
-        <v>61</v>
+        <v>4</v>
       </c>
       <c r="C33" s="5">
         <v>40070</v>
@@ -1477,10 +1473,10 @@
     </row>
     <row r="34" spans="1:7" ht="14" thickBot="1">
       <c r="A34" s="3" t="s">
-        <v>26</v>
+        <v>36</v>
       </c>
       <c r="B34" s="4" t="s">
-        <v>62</v>
+        <v>5</v>
       </c>
       <c r="C34" s="5">
         <v>40061</v>
@@ -1497,10 +1493,10 @@
     </row>
     <row r="35" spans="1:7" ht="14" thickBot="1">
       <c r="A35" s="3" t="s">
-        <v>26</v>
+        <v>36</v>
       </c>
       <c r="B35" s="4" t="s">
-        <v>63</v>
+        <v>6</v>
       </c>
       <c r="C35" s="5">
         <v>40066</v>
@@ -1517,10 +1513,10 @@
     </row>
     <row r="36" spans="1:7" ht="14" thickBot="1">
       <c r="A36" s="3" t="s">
-        <v>26</v>
+        <v>36</v>
       </c>
       <c r="B36" s="4" t="s">
-        <v>60</v>
+        <v>3</v>
       </c>
       <c r="C36" s="5">
         <v>40069</v>
@@ -1537,10 +1533,10 @@
     </row>
     <row r="37" spans="1:7" ht="14" thickBot="1">
       <c r="A37" s="3" t="s">
-        <v>26</v>
+        <v>36</v>
       </c>
       <c r="B37" s="4" t="s">
-        <v>64</v>
+        <v>7</v>
       </c>
       <c r="C37" s="5">
         <v>40070</v>
@@ -1557,10 +1553,10 @@
     </row>
     <row r="38" spans="1:7" ht="14" thickBot="1">
       <c r="A38" s="3" t="s">
-        <v>31</v>
+        <v>41</v>
       </c>
       <c r="B38" s="4" t="s">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="C38" s="5">
         <v>40073</v>
@@ -1577,10 +1573,10 @@
     </row>
     <row r="39" spans="1:7" ht="14" thickBot="1">
       <c r="A39" s="3" t="s">
-        <v>31</v>
+        <v>41</v>
       </c>
       <c r="B39" s="4" t="s">
-        <v>1</v>
+        <v>11</v>
       </c>
       <c r="C39" s="5">
         <v>40074</v>
@@ -1597,10 +1593,10 @@
     </row>
     <row r="40" spans="1:7" ht="14" thickBot="1">
       <c r="A40" s="3" t="s">
-        <v>26</v>
+        <v>36</v>
       </c>
       <c r="B40" s="4" t="s">
-        <v>2</v>
+        <v>12</v>
       </c>
       <c r="C40" s="5">
         <v>40076</v>
@@ -1617,10 +1613,10 @@
     </row>
     <row r="41" spans="1:7" ht="14" thickBot="1">
       <c r="A41" s="3" t="s">
-        <v>26</v>
+        <v>36</v>
       </c>
       <c r="B41" s="4" t="s">
-        <v>3</v>
+        <v>13</v>
       </c>
       <c r="C41" s="5">
         <v>40076</v>
@@ -1637,10 +1633,10 @@
     </row>
     <row r="42" spans="1:7" ht="14" thickBot="1">
       <c r="A42" s="3" t="s">
-        <v>29</v>
+        <v>39</v>
       </c>
       <c r="B42" s="4" t="s">
-        <v>4</v>
+        <v>14</v>
       </c>
       <c r="C42" s="5">
         <v>40063</v>
@@ -1657,10 +1653,10 @@
     </row>
     <row r="43" spans="1:7" ht="14" thickBot="1">
       <c r="A43" s="3" t="s">
-        <v>29</v>
+        <v>39</v>
       </c>
       <c r="B43" s="4" t="s">
-        <v>7</v>
+        <v>17</v>
       </c>
       <c r="C43" s="5">
         <v>40069</v>
@@ -1677,10 +1673,10 @@
     </row>
     <row r="44" spans="1:7" ht="14" thickBot="1">
       <c r="A44" s="3" t="s">
-        <v>29</v>
+        <v>39</v>
       </c>
       <c r="B44" s="4" t="s">
-        <v>8</v>
+        <v>18</v>
       </c>
       <c r="C44" s="5">
         <v>40069</v>
@@ -1697,10 +1693,10 @@
     </row>
     <row r="45" spans="1:7" ht="14" thickBot="1">
       <c r="A45" s="3" t="s">
-        <v>29</v>
+        <v>39</v>
       </c>
       <c r="B45" s="4" t="s">
-        <v>9</v>
+        <v>19</v>
       </c>
       <c r="C45" s="5">
         <v>40073</v>
@@ -1717,10 +1713,10 @@
     </row>
     <row r="46" spans="1:7" ht="14" thickBot="1">
       <c r="A46" s="3" t="s">
-        <v>29</v>
+        <v>39</v>
       </c>
       <c r="B46" s="4" t="s">
-        <v>10</v>
+        <v>20</v>
       </c>
       <c r="C46" s="5">
         <v>40073</v>
@@ -1737,10 +1733,10 @@
     </row>
     <row r="47" spans="1:7" ht="14" thickBot="1">
       <c r="A47" s="3" t="s">
-        <v>29</v>
+        <v>39</v>
       </c>
       <c r="B47" s="4" t="s">
-        <v>11</v>
+        <v>21</v>
       </c>
       <c r="C47" s="5">
         <v>40075</v>
@@ -1757,10 +1753,10 @@
     </row>
     <row r="48" spans="1:7" ht="14" thickBot="1">
       <c r="A48" s="3" t="s">
-        <v>31</v>
+        <v>41</v>
       </c>
       <c r="B48" s="4" t="s">
-        <v>12</v>
+        <v>22</v>
       </c>
       <c r="C48" s="5">
         <v>40077</v>
@@ -1777,10 +1773,10 @@
     </row>
     <row r="49" spans="1:7" ht="14" thickBot="1">
       <c r="A49" s="3" t="s">
-        <v>31</v>
+        <v>41</v>
       </c>
       <c r="B49" s="4" t="s">
-        <v>13</v>
+        <v>23</v>
       </c>
       <c r="C49" s="5">
         <v>40077</v>
@@ -1797,10 +1793,10 @@
     </row>
     <row r="50" spans="1:7" ht="14" thickBot="1">
       <c r="A50" s="3" t="s">
-        <v>29</v>
+        <v>39</v>
       </c>
       <c r="B50" s="4" t="s">
-        <v>14</v>
+        <v>24</v>
       </c>
       <c r="C50" s="5">
         <v>40078</v>
@@ -1817,10 +1813,10 @@
     </row>
     <row r="51" spans="1:7" ht="14" thickBot="1">
       <c r="A51" s="3" t="s">
-        <v>29</v>
+        <v>39</v>
       </c>
       <c r="B51" s="4" t="s">
-        <v>17</v>
+        <v>27</v>
       </c>
       <c r="C51" s="5">
         <v>40079</v>
@@ -1837,10 +1833,10 @@
     </row>
     <row r="52" spans="1:7" ht="14" thickBot="1">
       <c r="A52" s="3" t="s">
-        <v>29</v>
+        <v>39</v>
       </c>
       <c r="B52" s="4" t="s">
-        <v>18</v>
+        <v>28</v>
       </c>
       <c r="C52" s="5">
         <v>40079</v>
@@ -1856,6 +1852,7 @@
       </c>
     </row>
   </sheetData>
+  <sheetCalcPr fullCalcOnLoad="1"/>
   <phoneticPr fontId="1" type="noConversion"/>
   <conditionalFormatting sqref="C2:C52">
     <cfRule type="expression" dxfId="1" priority="0" stopIfTrue="1">
@@ -1866,9 +1863,8 @@
     </cfRule>
   </conditionalFormatting>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-  <pageSetup orientation="portrait" horizontalDpi="4294967292" verticalDpi="4294967292"/>
   <extLst>
-    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
+    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="http://schemas.microsoft.com/office/mac/excel/2008/main">
       <mx:PLV Mode="0" OnePage="0" WScale="0"/>
     </ext>
   </extLst>
